--- a/hyl定投/定投记录表-黄云龙.xlsx
+++ b/hyl定投/定投记录表-黄云龙.xlsx
@@ -10,7 +10,8 @@
     <sheet name="定投策略" sheetId="4" r:id="rId1"/>
     <sheet name="模板" sheetId="3" r:id="rId2"/>
     <sheet name="519671 沪深300价值" sheetId="1" r:id="rId3"/>
-    <sheet name="007028 中证500" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="007028 中证500" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -113,6 +114,34 @@
   </si>
   <si>
     <t>3700-4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股净值（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（150+50）/（0.5/0.25） =100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(200+100)*2 =600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>份额（股）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100+150/0.5 =400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400+200/0.25 =1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200+0/0.5=1200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +190,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,6 +295,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -561,22 +600,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -1244,7 +1283,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1302,6 +1341,15 @@
       <c r="A3" s="7">
         <v>43643</v>
       </c>
+      <c r="B3" s="8">
+        <v>750</v>
+      </c>
+      <c r="C3" s="8">
+        <v>459.77</v>
+      </c>
+      <c r="D3" s="8">
+        <v>300</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1313,6 +1361,9 @@
       <c r="A4" s="7">
         <f>A3+7</f>
         <v>43650</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1528,10 +1579,576 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43634</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>43634</v>
+      </c>
+      <c r="B2" s="8">
+        <v>100</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>100</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>43643</v>
+      </c>
+      <c r="B3" s="8">
+        <f>B2+100</f>
+        <v>200</v>
+      </c>
+      <c r="C3" s="8">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8">
+        <v>150</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <f>A3+7</f>
+        <v>43650</v>
+      </c>
+      <c r="B4" s="8">
+        <f t="shared" ref="B4:B11" si="0">B3+100</f>
+        <v>300</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8">
+        <v>200</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A29" si="1">A4+7</f>
+        <v>43657</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <f t="shared" si="1"/>
+        <v>43664</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1200</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f t="shared" si="1"/>
+        <v>43671</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f t="shared" si="1"/>
+        <v>43678</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f t="shared" si="1"/>
+        <v>43685</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f t="shared" si="1"/>
+        <v>43692</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f t="shared" si="1"/>
+        <v>43699</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D11" s="8">
+        <v>450</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <v>1200</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f t="shared" si="1"/>
+        <v>43706</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="1"/>
+        <v>43713</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <f t="shared" si="1"/>
+        <v>43720</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <f t="shared" si="1"/>
+        <v>43727</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <f t="shared" si="1"/>
+        <v>43734</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <f t="shared" si="1"/>
+        <v>43741</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <f t="shared" si="1"/>
+        <v>43748</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <f t="shared" si="1"/>
+        <v>43755</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <f t="shared" si="1"/>
+        <v>43762</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <f t="shared" si="1"/>
+        <v>43769</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <f t="shared" si="1"/>
+        <v>43776</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <f t="shared" si="1"/>
+        <v>43783</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <f t="shared" si="1"/>
+        <v>43790</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <f t="shared" si="1"/>
+        <v>43797</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <f t="shared" si="1"/>
+        <v>43804</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <f t="shared" si="1"/>
+        <v>43811</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <f t="shared" si="1"/>
+        <v>43818</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <f t="shared" si="1"/>
+        <v>43825</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1591,6 +2208,12 @@
         <f>B2+300</f>
         <v>800</v>
       </c>
+      <c r="C3" s="8">
+        <v>507.76</v>
+      </c>
+      <c r="D3" s="8">
+        <v>300</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1602,6 +2225,9 @@
       <c r="A4" s="7">
         <f>A3+7</f>
         <v>43650</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">

--- a/hyl定投/定投记录表-黄云龙.xlsx
+++ b/hyl定投/定投记录表-黄云龙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="定投策略" sheetId="4" r:id="rId1"/>
@@ -1282,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1364,6 +1364,12 @@
       </c>
       <c r="B4" s="8">
         <v>1050</v>
+      </c>
+      <c r="C4" s="8">
+        <v>774.76</v>
+      </c>
+      <c r="D4" s="8">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2147,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2229,6 +2235,12 @@
       <c r="B4" s="8">
         <v>1100</v>
       </c>
+      <c r="C4" s="8">
+        <v>815.18</v>
+      </c>
+      <c r="D4" s="8">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
@@ -2417,5 +2429,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hyl定投/定投记录表-黄云龙.xlsx
+++ b/hyl定投/定投记录表-黄云龙.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -143,6 +143,14 @@
   <si>
     <t>1200+0/0.5=1200</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认份额(份)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认净值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -200,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +231,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -264,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,6 +313,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,22 +617,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -725,22 +742,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,24 +771,30 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J1" s="2">
         <v>43643</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f>H1</f>
+        <f>J1</f>
         <v>43643</v>
       </c>
       <c r="B2" s="8">
-        <f>H2</f>
+        <f>J2</f>
         <v>50</v>
       </c>
       <c r="C2" s="8">
@@ -781,22 +805,24 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="J2" s="5">
         <v>50</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f>A2+7</f>
         <v>43650</v>
       </c>
       <c r="B3" s="8">
-        <f>B2+H$2</f>
+        <f>B2+J$2</f>
         <v>100</v>
       </c>
       <c r="C3" s="8">
@@ -807,22 +833,24 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>A3+7</f>
         <v>43657</v>
       </c>
       <c r="B4" s="8">
-        <f t="shared" ref="B4:B29" si="0">B3+H$2</f>
+        <f t="shared" ref="B4:B29" si="0">B3+J$2</f>
         <v>150</v>
       </c>
       <c r="C4" s="8"/>
@@ -833,8 +861,10 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A29" si="1">A4+7</f>
         <v>43664</v>
@@ -851,8 +881,10 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="1"/>
         <v>43671</v>
@@ -869,8 +901,10 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="1"/>
         <v>43678</v>
@@ -886,8 +920,10 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="1"/>
         <v>43685</v>
@@ -903,8 +939,10 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="1"/>
         <v>43692</v>
@@ -920,8 +958,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="1"/>
         <v>43699</v>
@@ -937,8 +977,10 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="1"/>
         <v>43706</v>
@@ -954,8 +996,10 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="1"/>
         <v>43713</v>
@@ -971,8 +1015,10 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>43720</v>
@@ -988,8 +1034,10 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="1"/>
         <v>43727</v>
@@ -1005,8 +1053,10 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="1"/>
         <v>43734</v>
@@ -1022,8 +1072,10 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="1"/>
         <v>43741</v>
@@ -1039,8 +1091,10 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <f t="shared" si="1"/>
         <v>43748</v>
@@ -1056,8 +1110,10 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <f t="shared" si="1"/>
         <v>43755</v>
@@ -1073,8 +1129,10 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>43762</v>
@@ -1090,8 +1148,10 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="1"/>
         <v>43769</v>
@@ -1107,8 +1167,10 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <f t="shared" si="1"/>
         <v>43776</v>
@@ -1124,8 +1186,10 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <f t="shared" si="1"/>
         <v>43783</v>
@@ -1141,8 +1205,10 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <f t="shared" si="1"/>
         <v>43790</v>
@@ -1158,8 +1224,10 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <f t="shared" si="1"/>
         <v>43797</v>
@@ -1175,8 +1243,10 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <f t="shared" si="1"/>
         <v>43804</v>
@@ -1192,8 +1262,10 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <f t="shared" si="1"/>
         <v>43811</v>
@@ -1209,8 +1281,10 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <f t="shared" si="1"/>
         <v>43818</v>
@@ -1226,8 +1300,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <f t="shared" si="1"/>
         <v>43825</v>
@@ -1243,8 +1319,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <f t="shared" si="1"/>
         <v>43832</v>
@@ -1260,8 +1338,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1271,6 +1351,8 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1280,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1293,11 +1375,12 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,14 +1393,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J1" s="2">
         <v>43634</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>43634</v>
       </c>
@@ -1330,14 +1421,20 @@
       <c r="D2" s="8">
         <v>450</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="8">
+        <v>278.48</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="J2" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43643</v>
       </c>
@@ -1350,14 +1447,20 @@
       <c r="D3" s="8">
         <v>300</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="8">
+        <v>179.96</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.665</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>A3+7</f>
         <v>43650</v>
@@ -1371,84 +1474,108 @@
       <c r="D4" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.6890000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A29" si="0">A4+7</f>
         <v>43657</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>1350</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1045.3399999999999</v>
+      </c>
+      <c r="D5" s="8">
+        <v>306</v>
+      </c>
+      <c r="E5" s="8">
+        <v>185.46</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.6479999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>43664</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>43671</v>
       </c>
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>43678</v>
       </c>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>43685</v>
       </c>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>43692</v>
       </c>
       <c r="B10"/>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>43699</v>
       </c>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>43706</v>
       </c>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>43713</v>
       </c>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>43720</v>
       </c>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>43727</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>43734</v>
@@ -2151,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2162,11 +2289,12 @@
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2179,14 +2307,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2">
+      <c r="K1" s="2">
         <v>43633</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>43633</v>
       </c>
@@ -2199,14 +2336,20 @@
       <c r="D2" s="8">
         <v>500</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="8">
+        <v>523.63</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="K2" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>43643</v>
       </c>
@@ -2220,14 +2363,20 @@
       <c r="D3" s="8">
         <v>300</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="8">
+        <v>307.51</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6">
+      <c r="K3" s="6">
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f>A3+7</f>
         <v>43650</v>
@@ -2241,82 +2390,103 @@
       <c r="D4" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="8">
+        <v>306.52999999999997</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.97819999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A29" si="0">A4+7</f>
         <v>43657</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>1400</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1076.92</v>
+      </c>
+      <c r="D5" s="8">
+        <v>324</v>
+      </c>
+      <c r="E5" s="8">
+        <v>342.14</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.94650000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>43664</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>43671</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>43678</v>
       </c>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>43685</v>
       </c>
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>43692</v>
       </c>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>43699</v>
       </c>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>43706</v>
       </c>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>43713</v>
       </c>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>43720</v>
       </c>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>43727</v>
       </c>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>43734</v>

--- a/hyl定投/定投记录表-黄云龙.xlsx
+++ b/hyl定投/定投记录表-黄云龙.xlsx
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,22 +620,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -1365,7 +1368,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1507,14 +1510,39 @@
         <f t="shared" si="0"/>
         <v>43664</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="14">
+        <v>1650</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1364</v>
+      </c>
+      <c r="D6" s="8">
+        <v>300</v>
+      </c>
+      <c r="E6" s="8">
+        <v>181.16</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.6539999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>43671</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" s="14">
+        <v>1950</v>
+      </c>
+      <c r="D7" s="8">
+        <v>300</v>
+      </c>
+      <c r="E7" s="8">
+        <v>176.05</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.702</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
@@ -2281,7 +2309,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2423,11 +2451,38 @@
         <f t="shared" si="0"/>
         <v>43664</v>
       </c>
+      <c r="B6" s="8">
+        <v>1700</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1425.21</v>
+      </c>
+      <c r="D6" s="8">
+        <v>300</v>
+      </c>
+      <c r="E6" s="8">
+        <v>316.23</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.94820000000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>43671</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="8">
+        <v>300</v>
+      </c>
+      <c r="E7" s="8">
+        <v>313.32</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">

--- a/hyl定投/定投记录表-黄云龙.xlsx
+++ b/hyl定投/定投记录表-黄云龙.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -151,6 +151,14 @@
   <si>
     <t>确认净值</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1365,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1486,7 +1494,7 @@
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A29" si="0">A4+7</f>
+        <f t="shared" ref="A5:A8" si="0">A4+7</f>
         <v>43657</v>
       </c>
       <c r="B5" s="8">
@@ -1549,187 +1557,99 @@
         <f t="shared" si="0"/>
         <v>43678</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="14">
+        <v>2250</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1991</v>
+      </c>
+      <c r="D8" s="8">
+        <v>300</v>
+      </c>
+      <c r="E8" s="8">
+        <v>178.68</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.677</v>
+      </c>
     </row>
     <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <f t="shared" si="0"/>
-        <v>43685</v>
-      </c>
-      <c r="B9"/>
+        <v>43683</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3250</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3202.74</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>620.76</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.609</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>43692</v>
-      </c>
-      <c r="B10"/>
-      <c r="I10" s="8">
-        <v>50</v>
+        <v>43685</v>
+      </c>
+      <c r="B10" s="14">
+        <v>3550</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3470</v>
+      </c>
+      <c r="D10" s="8">
+        <v>300</v>
+      </c>
+      <c r="E10" s="8">
+        <v>184.62</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.623</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <f t="shared" si="0"/>
-        <v>43699</v>
-      </c>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <f t="shared" si="0"/>
-        <v>43706</v>
-      </c>
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <f t="shared" si="0"/>
-        <v>43713</v>
-      </c>
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <f t="shared" si="0"/>
-        <v>43720</v>
-      </c>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>43727</v>
-      </c>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <f t="shared" si="0"/>
-        <v>43734</v>
-      </c>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <f t="shared" si="0"/>
-        <v>43741</v>
-      </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <f t="shared" si="0"/>
-        <v>43748</v>
-      </c>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <f t="shared" si="0"/>
-        <v>43755</v>
-      </c>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <f t="shared" si="0"/>
-        <v>43762</v>
-      </c>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <f t="shared" si="0"/>
-        <v>43769</v>
-      </c>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <f t="shared" si="0"/>
-        <v>43776</v>
-      </c>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <f t="shared" si="0"/>
-        <v>43783</v>
-      </c>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <f t="shared" si="0"/>
-        <v>43790</v>
-      </c>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <f t="shared" si="0"/>
-        <v>43797</v>
-      </c>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <f t="shared" si="0"/>
-        <v>43804</v>
-      </c>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <f t="shared" si="0"/>
-        <v>43811</v>
-      </c>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <f t="shared" si="0"/>
-        <v>43818</v>
-      </c>
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <f t="shared" si="0"/>
-        <v>43825</v>
-      </c>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+        <v>43686</v>
+      </c>
+      <c r="B11" s="14">
+        <v>4550</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3509</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2306,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2427,7 +2347,7 @@
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A29" si="0">A4+7</f>
+        <f t="shared" ref="A5:A8" si="0">A4+7</f>
         <v>43657</v>
       </c>
       <c r="B5" s="8">
@@ -2490,166 +2410,70 @@
         <f t="shared" si="0"/>
         <v>43678</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" s="8">
+        <v>2300</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2024</v>
+      </c>
+      <c r="D8" s="8">
+        <v>300</v>
+      </c>
+      <c r="E8" s="8">
+        <v>314.41000000000003</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.95369999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <f t="shared" si="0"/>
-        <v>43685</v>
-      </c>
-      <c r="B9"/>
+        <v>43683</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3300</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3259</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1094.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>43692</v>
-      </c>
-      <c r="B10"/>
+        <v>43686</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4300</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3217.11</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <f t="shared" si="0"/>
-        <v>43699</v>
-      </c>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <f t="shared" si="0"/>
-        <v>43706</v>
-      </c>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <f t="shared" si="0"/>
-        <v>43713</v>
-      </c>
       <c r="B13"/>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <f t="shared" si="0"/>
-        <v>43720</v>
-      </c>
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <f t="shared" si="0"/>
-        <v>43727</v>
-      </c>
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <f t="shared" si="0"/>
-        <v>43734</v>
-      </c>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <f t="shared" si="0"/>
-        <v>43741</v>
-      </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <f t="shared" si="0"/>
-        <v>43748</v>
-      </c>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <f t="shared" si="0"/>
-        <v>43755</v>
-      </c>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <f t="shared" si="0"/>
-        <v>43762</v>
-      </c>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <f t="shared" si="0"/>
-        <v>43769</v>
-      </c>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <f t="shared" si="0"/>
-        <v>43776</v>
-      </c>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <f t="shared" si="0"/>
-        <v>43783</v>
-      </c>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <f t="shared" si="0"/>
-        <v>43790</v>
-      </c>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <f t="shared" si="0"/>
-        <v>43797</v>
-      </c>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <f t="shared" si="0"/>
-        <v>43804</v>
-      </c>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <f t="shared" si="0"/>
-        <v>43811</v>
-      </c>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <f t="shared" si="0"/>
-        <v>43818</v>
-      </c>
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <f t="shared" si="0"/>
-        <v>43825</v>
-      </c>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/hyl定投/定投记录表-黄云龙.xlsx
+++ b/hyl定投/定投记录表-黄云龙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定投策略" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1629,15 +1629,49 @@
       <c r="D11" s="8">
         <v>1000</v>
       </c>
+      <c r="E11" s="8">
+        <v>618.07000000000005</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1.6160000000000001</v>
+      </c>
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>43690</v>
+      </c>
+      <c r="B12" s="14">
+        <v>5550</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4551.92</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="8">
+        <v>616.91999999999996</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.619</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>43692</v>
+      </c>
+      <c r="B13" s="14">
+        <v>5850</v>
+      </c>
+      <c r="D13" s="8">
+        <v>300</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
@@ -2228,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2462,15 +2496,55 @@
       <c r="D10" s="8">
         <v>1000</v>
       </c>
+      <c r="E10" s="8">
+        <v>1105.52</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.90410000000000001</v>
+      </c>
       <c r="G10" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11"/>
+      <c r="A11" s="7">
+        <v>43690</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5300</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4254.8100000000004</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1091.6300000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12"/>
+      <c r="A12" s="7">
+        <v>43692</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5600</v>
+      </c>
+      <c r="D12" s="8">
+        <v>300</v>
+      </c>
+      <c r="E12" s="8">
+        <v>324.16000000000003</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.92500000000000004</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13"/>

--- a/hyl定投/定投记录表-黄云龙.xlsx
+++ b/hyl定投/定投记录表-黄云龙.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="定投策略" sheetId="4" r:id="rId1"/>
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1672,9 +1672,29 @@
       <c r="D13" s="8">
         <v>300</v>
       </c>
+      <c r="E13" s="8">
+        <v>184.39</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1.625</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B14" s="14">
+        <v>6150</v>
+      </c>
+      <c r="D14" s="8">
+        <v>300</v>
+      </c>
+      <c r="E14" s="8">
+        <v>182.48</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.6419999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2262,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2547,7 +2567,21 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13"/>
+      <c r="A13" s="3">
+        <v>43699</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5900</v>
+      </c>
+      <c r="D13" s="8">
+        <v>300</v>
+      </c>
+      <c r="E13" s="8">
+        <v>312.8</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.95860000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/hyl定投/定投记录表-黄云龙.xlsx
+++ b/hyl定投/定投记录表-黄云龙.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>加仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +219,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +353,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1376,7 +1406,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1697,13 +1727,55 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B15" s="14">
+        <v>6450</v>
+      </c>
+      <c r="D15" s="8">
+        <v>300</v>
+      </c>
+      <c r="E15" s="8">
+        <v>184.96</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A16" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B16" s="14">
+        <v>6750</v>
+      </c>
+      <c r="D16" s="8">
+        <v>300</v>
+      </c>
+      <c r="E16" s="8">
+        <v>179.1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B17" s="14">
+        <v>6750</v>
+      </c>
+      <c r="C17">
+        <v>6906.98</v>
+      </c>
+      <c r="D17" s="8">
+        <v>150</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2280,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2583,6 +2655,57 @@
         <v>0.95860000000000001</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>43706</v>
+      </c>
+      <c r="B14" s="8">
+        <v>6200</v>
+      </c>
+      <c r="D14" s="8">
+        <v>300</v>
+      </c>
+      <c r="E14" s="8">
+        <v>309.08999999999997</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.97009999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>43713</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6500</v>
+      </c>
+      <c r="D15" s="8">
+        <v>300</v>
+      </c>
+      <c r="E15" s="8">
+        <v>297.35000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.0084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>43714</v>
+      </c>
+      <c r="B16" s="8">
+        <v>6500</v>
+      </c>
+      <c r="C16">
+        <v>7017.27</v>
+      </c>
+      <c r="D16" s="8">
+        <v>500</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hyl定投/定投记录表-黄云龙.xlsx
+++ b/hyl定投/定投记录表-黄云龙.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="定投策略" sheetId="4" r:id="rId1"/>
     <sheet name="模板" sheetId="3" r:id="rId2"/>
     <sheet name="519671 沪深300价值" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="007028 中证500" sheetId="2" r:id="rId5"/>
+    <sheet name="007028 中证500" sheetId="2" r:id="rId4"/>
+    <sheet name="001594 中证银行" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -117,34 +117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每股净值（元）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（150+50）/（0.5/0.25） =100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(200+100)*2 =600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>份额（股）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100+150/0.5 =400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400+200/0.25 =1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200+0/0.5=1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>确认份额(份)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,6 +138,10 @@
   </si>
   <si>
     <t>卖出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -352,13 +328,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -658,22 +634,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -786,7 +762,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J3" sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -813,12 +789,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>4</v>
@@ -1403,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1435,10 +1413,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -1623,7 +1601,7 @@
         <v>1.609</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1666,7 +1644,7 @@
         <v>1.6160000000000001</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1689,7 +1667,7 @@
         <v>1.619</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1773,8 +1751,34 @@
       <c r="D17" s="8">
         <v>150</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>34</v>
+      <c r="E17" s="8">
+        <v>89</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>43720</v>
+      </c>
+      <c r="B18" s="14">
+        <v>7050</v>
+      </c>
+      <c r="C18">
+        <v>6810</v>
+      </c>
+      <c r="D18" s="8">
+        <v>300</v>
+      </c>
+      <c r="E18" s="8">
+        <v>175.85</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.704</v>
       </c>
     </row>
   </sheetData>
@@ -1786,576 +1790,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2">
-        <v>43634</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>43634</v>
-      </c>
-      <c r="B2" s="8">
-        <v>100</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>100</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
-        <v>100</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>43643</v>
-      </c>
-      <c r="B3" s="8">
-        <f>B2+100</f>
-        <v>200</v>
-      </c>
-      <c r="C3" s="8">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8">
-        <v>150</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <f>A3+7</f>
-        <v>43650</v>
-      </c>
-      <c r="B4" s="8">
-        <f t="shared" ref="B4:B11" si="0">B3+100</f>
-        <v>300</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8">
-        <v>200</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <f t="shared" ref="A5:A29" si="1">A4+7</f>
-        <v>43657</v>
-      </c>
-      <c r="B5" s="8">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <f t="shared" si="1"/>
-        <v>43664</v>
-      </c>
-      <c r="B6" s="8">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1200</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <f t="shared" si="1"/>
-        <v>43671</v>
-      </c>
-      <c r="B7" s="8">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <f t="shared" si="1"/>
-        <v>43678</v>
-      </c>
-      <c r="B8" s="8">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <f t="shared" si="1"/>
-        <v>43685</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <f t="shared" si="1"/>
-        <v>43692</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <f t="shared" si="1"/>
-        <v>43699</v>
-      </c>
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1200</v>
-      </c>
-      <c r="D11" s="8">
-        <v>450</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>1200</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <f t="shared" si="1"/>
-        <v>43706</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <f t="shared" si="1"/>
-        <v>43713</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <f t="shared" si="1"/>
-        <v>43720</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <f t="shared" si="1"/>
-        <v>43727</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <f t="shared" si="1"/>
-        <v>43734</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <f t="shared" si="1"/>
-        <v>43741</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <f t="shared" si="1"/>
-        <v>43748</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <f t="shared" si="1"/>
-        <v>43755</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <f t="shared" si="1"/>
-        <v>43762</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <f t="shared" si="1"/>
-        <v>43769</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <f t="shared" si="1"/>
-        <v>43776</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <f t="shared" si="1"/>
-        <v>43783</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <f t="shared" si="1"/>
-        <v>43790</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <f t="shared" si="1"/>
-        <v>43797</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <f t="shared" si="1"/>
-        <v>43804</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <f t="shared" si="1"/>
-        <v>43811</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <f t="shared" si="1"/>
-        <v>43818</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <f t="shared" si="1"/>
-        <v>43825</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2382,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -2572,7 +2010,7 @@
         <v>0.91320000000000001</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2595,7 +2033,7 @@
         <v>0.90410000000000001</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2618,7 +2056,7 @@
         <v>0.91559999999999997</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2702,8 +2140,14 @@
       <c r="D16" s="8">
         <v>500</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>35</v>
+      <c r="E16" s="8">
+        <v>496</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1.0116000000000001</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2711,4 +2155,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>43720</v>
+      </c>
+      <c r="B2" s="8">
+        <f>J2</f>
+        <v>300</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>300</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>